--- a/src/predicciones/holt_winters/producto_24.xlsx
+++ b/src/predicciones/holt_winters/producto_24.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,3421 +404,3421 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>2.085736511487217</v>
+        <v>2.00076702465094</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>2.074678581730877</v>
+        <v>1.885549907922856</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1.700639981314154</v>
+        <v>1.802992638276105</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44932</v>
       </c>
       <c r="B5">
-        <v>2.199974024591309</v>
+        <v>2.365613469912284</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44933</v>
       </c>
       <c r="B6">
-        <v>1.9698331817889</v>
+        <v>2.268723344742154</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44934</v>
       </c>
       <c r="B7">
-        <v>2.211374791979293</v>
+        <v>2.530162968849208</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44935</v>
       </c>
       <c r="B8">
-        <v>2.981841264526915</v>
+        <v>2.970769877027344</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44936</v>
       </c>
       <c r="B9">
-        <v>2.093675279185989</v>
+        <v>1.988495520644738</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44939</v>
       </c>
       <c r="B10">
-        <v>2.082617349429649</v>
+        <v>1.873278403916654</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44940</v>
       </c>
       <c r="B11">
-        <v>1.708578749012926</v>
+        <v>1.790721134269903</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44941</v>
       </c>
       <c r="B12">
-        <v>2.20791279229008</v>
+        <v>2.353341965906082</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44942</v>
       </c>
       <c r="B13">
-        <v>1.977771949487671</v>
+        <v>2.256451840735952</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44943</v>
       </c>
       <c r="B14">
-        <v>2.219313559678065</v>
+        <v>2.517891464843006</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44945</v>
       </c>
       <c r="B15">
-        <v>2.989780032225687</v>
+        <v>2.958498373021142</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44946</v>
       </c>
       <c r="B16">
-        <v>2.101614046884761</v>
+        <v>1.976224016638536</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44947</v>
       </c>
       <c r="B17">
-        <v>2.09055611712842</v>
+        <v>1.861006899910453</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44948</v>
       </c>
       <c r="B18">
-        <v>1.716517516711698</v>
+        <v>1.778449630263701</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44949</v>
       </c>
       <c r="B19">
-        <v>2.215851559988852</v>
+        <v>2.34107046189988</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44950</v>
       </c>
       <c r="B20">
-        <v>1.985710717186443</v>
+        <v>2.24418033672975</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44951</v>
       </c>
       <c r="B21">
-        <v>2.227252327376837</v>
+        <v>2.505619960836805</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44952</v>
       </c>
       <c r="B22">
-        <v>2.997718799924458</v>
+        <v>2.946226869014941</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44953</v>
       </c>
       <c r="B23">
-        <v>2.109552814583532</v>
+        <v>1.963952512632335</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44954</v>
       </c>
       <c r="B24">
-        <v>2.098494884827192</v>
+        <v>1.848735395904251</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44956</v>
       </c>
       <c r="B25">
-        <v>1.724456284410469</v>
+        <v>1.766178126257499</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44958</v>
       </c>
       <c r="B26">
-        <v>2.223790327687623</v>
+        <v>2.328798957893679</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44960</v>
       </c>
       <c r="B27">
-        <v>1.993649484885215</v>
+        <v>2.231908832723549</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44961</v>
       </c>
       <c r="B28">
-        <v>2.235191095075608</v>
+        <v>2.493348456830603</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44962</v>
       </c>
       <c r="B29">
-        <v>3.00565756762323</v>
+        <v>2.933955365008739</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44963</v>
       </c>
       <c r="B30">
-        <v>2.117491582282303</v>
+        <v>1.951681008626133</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44964</v>
       </c>
       <c r="B31">
-        <v>2.106433652525963</v>
+        <v>1.836463891898049</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44965</v>
       </c>
       <c r="B32">
-        <v>1.732395052109241</v>
+        <v>1.753906622251298</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44967</v>
       </c>
       <c r="B33">
-        <v>2.231729095386394</v>
+        <v>2.316527453887477</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44968</v>
       </c>
       <c r="B34">
-        <v>2.001588252583986</v>
+        <v>2.219637328717347</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44970</v>
       </c>
       <c r="B35">
-        <v>2.24312986277438</v>
+        <v>2.481076952824401</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44971</v>
       </c>
       <c r="B36">
-        <v>3.013596335322001</v>
+        <v>2.921683861002538</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44972</v>
       </c>
       <c r="B37">
-        <v>2.125430349981075</v>
+        <v>1.939409504619931</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44973</v>
       </c>
       <c r="B38">
-        <v>2.114372420224735</v>
+        <v>1.824192387891848</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44974</v>
       </c>
       <c r="B39">
-        <v>1.740333819808012</v>
+        <v>1.741635118245096</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44975</v>
       </c>
       <c r="B40">
-        <v>2.239667863085167</v>
+        <v>2.304255949881275</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44976</v>
       </c>
       <c r="B41">
-        <v>2.009527020282758</v>
+        <v>2.207365824711145</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44977</v>
       </c>
       <c r="B42">
-        <v>2.251068630473151</v>
+        <v>2.468805448818199</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44978</v>
       </c>
       <c r="B43">
-        <v>3.021535103020773</v>
+        <v>2.909412356996336</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44979</v>
       </c>
       <c r="B44">
-        <v>2.133369117679847</v>
+        <v>1.92713800061373</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44981</v>
       </c>
       <c r="B45">
-        <v>2.122311187923506</v>
+        <v>1.811920883885646</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>44982</v>
       </c>
       <c r="B46">
-        <v>1.748272587506784</v>
+        <v>1.729363614238894</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>44984</v>
       </c>
       <c r="B47">
-        <v>2.247606630783938</v>
+        <v>2.291984445875074</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>44986</v>
       </c>
       <c r="B48">
-        <v>2.017465787981529</v>
+        <v>2.195094320704944</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>44987</v>
       </c>
       <c r="B49">
-        <v>2.259007398171923</v>
+        <v>2.456533944811998</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>44988</v>
       </c>
       <c r="B50">
-        <v>3.029473870719544</v>
+        <v>2.897140852990134</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>44989</v>
       </c>
       <c r="B51">
-        <v>2.141307885378618</v>
+        <v>1.914866496607528</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>44990</v>
       </c>
       <c r="B52">
-        <v>2.130249955622278</v>
+        <v>1.799649379879444</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>44991</v>
       </c>
       <c r="B53">
-        <v>1.756211355205555</v>
+        <v>1.717092110232692</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>44993</v>
       </c>
       <c r="B54">
-        <v>2.25554539848271</v>
+        <v>2.279712941868872</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>44994</v>
       </c>
       <c r="B55">
-        <v>2.025404555680301</v>
+        <v>2.182822816698742</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>44995</v>
       </c>
       <c r="B56">
-        <v>2.266946165870694</v>
+        <v>2.444262440805796</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>44997</v>
       </c>
       <c r="B57">
-        <v>3.037412638418316</v>
+        <v>2.884869348983933</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>44998</v>
       </c>
       <c r="B58">
-        <v>2.14924665307739</v>
+        <v>1.902594992601326</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45000</v>
       </c>
       <c r="B59">
-        <v>2.13818872332105</v>
+        <v>1.787377875873242</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45001</v>
       </c>
       <c r="B60">
-        <v>1.764150122904327</v>
+        <v>1.704820606226491</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45002</v>
       </c>
       <c r="B61">
-        <v>2.263484166181481</v>
+        <v>2.26744143786267</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45003</v>
       </c>
       <c r="B62">
-        <v>2.033343323379072</v>
+        <v>2.17055131269254</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45005</v>
       </c>
       <c r="B63">
-        <v>2.274884933569466</v>
+        <v>2.431990936799594</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45006</v>
       </c>
       <c r="B64">
-        <v>3.045351406117088</v>
+        <v>2.87259784497773</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45008</v>
       </c>
       <c r="B65">
-        <v>2.157185420776162</v>
+        <v>1.890323488595125</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45009</v>
       </c>
       <c r="B66">
-        <v>2.146127491019821</v>
+        <v>1.775106371867041</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45010</v>
       </c>
       <c r="B67">
-        <v>1.772088890603099</v>
+        <v>1.692549102220289</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45011</v>
       </c>
       <c r="B68">
-        <v>2.271422933880253</v>
+        <v>2.255169933856469</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45013</v>
       </c>
       <c r="B69">
-        <v>2.041282091077844</v>
+        <v>2.158279808686339</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45014</v>
       </c>
       <c r="B70">
-        <v>2.282823701268238</v>
+        <v>2.419719432793392</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45015</v>
       </c>
       <c r="B71">
-        <v>3.053290173815859</v>
+        <v>2.860326340971529</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45018</v>
       </c>
       <c r="B72">
-        <v>2.165124188474933</v>
+        <v>1.878051984588923</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45019</v>
       </c>
       <c r="B73">
-        <v>2.154066258718593</v>
+        <v>1.762834867860839</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45020</v>
       </c>
       <c r="B74">
-        <v>1.78002765830187</v>
+        <v>1.680277598214087</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45022</v>
       </c>
       <c r="B75">
-        <v>2.279361701579024</v>
+        <v>2.242898429850267</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45025</v>
       </c>
       <c r="B76">
-        <v>2.049220858776616</v>
+        <v>2.146008304680137</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45026</v>
       </c>
       <c r="B77">
-        <v>2.290762468967009</v>
+        <v>2.407447928787191</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45027</v>
       </c>
       <c r="B78">
-        <v>3.061228941514631</v>
+        <v>2.848054836965328</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45028</v>
       </c>
       <c r="B79">
-        <v>2.173062956173705</v>
+        <v>1.865780480582721</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45029</v>
       </c>
       <c r="B80">
-        <v>2.162005026417364</v>
+        <v>1.750563363854637</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45030</v>
       </c>
       <c r="B81">
-        <v>1.787966426000642</v>
+        <v>1.668006094207886</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45032</v>
       </c>
       <c r="B82">
-        <v>2.287300469277796</v>
+        <v>2.230626925844065</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45034</v>
       </c>
       <c r="B83">
-        <v>2.057159626475387</v>
+        <v>2.133736800673935</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45035</v>
       </c>
       <c r="B84">
-        <v>2.298701236665781</v>
+        <v>2.395176424780989</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45038</v>
       </c>
       <c r="B85">
-        <v>3.069167709213402</v>
+        <v>2.835783332959125</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45039</v>
       </c>
       <c r="B86">
-        <v>2.181001723872476</v>
+        <v>1.853508976576519</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45040</v>
       </c>
       <c r="B87">
-        <v>2.169943794116136</v>
+        <v>1.738291859848435</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45041</v>
       </c>
       <c r="B88">
-        <v>1.795905193699413</v>
+        <v>1.655734590201684</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45042</v>
       </c>
       <c r="B89">
-        <v>2.295239236976568</v>
+        <v>2.218355421837864</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45043</v>
       </c>
       <c r="B90">
-        <v>2.065098394174159</v>
+        <v>2.121465296667734</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45048</v>
       </c>
       <c r="B91">
-        <v>2.306640004364552</v>
+        <v>2.382904920774787</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45049</v>
       </c>
       <c r="B92">
-        <v>3.077106476912174</v>
+        <v>2.823511828952924</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45050</v>
       </c>
       <c r="B93">
-        <v>2.188940491571248</v>
+        <v>1.841237472570317</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45051</v>
       </c>
       <c r="B94">
-        <v>2.177882561814907</v>
+        <v>1.726020355842234</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45052</v>
       </c>
       <c r="B95">
-        <v>1.803843961398185</v>
+        <v>1.643463086195482</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45053</v>
       </c>
       <c r="B96">
-        <v>2.303178004675339</v>
+        <v>2.206083917831662</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45054</v>
       </c>
       <c r="B97">
-        <v>2.07303716187293</v>
+        <v>2.109193792661532</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45055</v>
       </c>
       <c r="B98">
-        <v>2.314578772063324</v>
+        <v>2.370633416768586</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45057</v>
       </c>
       <c r="B99">
-        <v>3.085045244610945</v>
+        <v>2.811240324946723</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45059</v>
       </c>
       <c r="B100">
-        <v>2.196879259270019</v>
+        <v>1.828965968564116</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45060</v>
       </c>
       <c r="B101">
-        <v>2.185821329513679</v>
+        <v>1.713748851836032</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45062</v>
       </c>
       <c r="B102">
-        <v>1.811782729096956</v>
+        <v>1.631191582189281</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45063</v>
       </c>
       <c r="B103">
-        <v>2.311116772374111</v>
+        <v>2.19381241382546</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45065</v>
       </c>
       <c r="B104">
-        <v>2.080975929571702</v>
+        <v>2.09692228865533</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45066</v>
       </c>
       <c r="B105">
-        <v>2.322517539762095</v>
+        <v>2.358361912762384</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45068</v>
       </c>
       <c r="B106">
-        <v>3.092984012309717</v>
+        <v>2.79896882094052</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45072</v>
       </c>
       <c r="B107">
-        <v>2.204818026968791</v>
+        <v>1.816694464557914</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45074</v>
       </c>
       <c r="B108">
-        <v>2.193760097212451</v>
+        <v>1.70147734782983</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45075</v>
       </c>
       <c r="B109">
-        <v>1.819721496795728</v>
+        <v>1.618920078183079</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45078</v>
       </c>
       <c r="B110">
-        <v>2.319055540072882</v>
+        <v>2.181540909819259</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45079</v>
       </c>
       <c r="B111">
-        <v>2.088914697270473</v>
+        <v>2.084650784649129</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45080</v>
       </c>
       <c r="B112">
-        <v>2.330456307460867</v>
+        <v>2.346090408756182</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45081</v>
       </c>
       <c r="B113">
-        <v>3.100922780008489</v>
+        <v>2.786697316934319</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45082</v>
       </c>
       <c r="B114">
-        <v>2.212756794667563</v>
+        <v>1.804422960551712</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45083</v>
       </c>
       <c r="B115">
-        <v>2.201698864911222</v>
+        <v>1.689205843823629</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45084</v>
       </c>
       <c r="B116">
-        <v>1.8276602644945</v>
+        <v>1.606648574176877</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45085</v>
       </c>
       <c r="B117">
-        <v>2.326994307771654</v>
+        <v>2.169269405813057</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45086</v>
       </c>
       <c r="B118">
-        <v>2.096853464969245</v>
+        <v>2.072379280642927</v>
       </c>
       <c r="C118">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45087</v>
       </c>
       <c r="B119">
-        <v>2.338395075159639</v>
+        <v>2.333818904749981</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45089</v>
       </c>
       <c r="B120">
-        <v>3.10886154770726</v>
+        <v>2.774425812928117</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45090</v>
       </c>
       <c r="B121">
-        <v>2.220695562366334</v>
+        <v>1.792151456545511</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45092</v>
       </c>
       <c r="B122">
-        <v>2.209637632609994</v>
+        <v>1.676934339817427</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45093</v>
       </c>
       <c r="B123">
-        <v>1.835599032193271</v>
+        <v>1.594377070170676</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45094</v>
       </c>
       <c r="B124">
-        <v>2.334933075470425</v>
+        <v>2.156997901806855</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45095</v>
       </c>
       <c r="B125">
-        <v>2.104792232668017</v>
+        <v>2.060107776636725</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45099</v>
       </c>
       <c r="B126">
-        <v>2.34633384285841</v>
+        <v>2.321547400743779</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45100</v>
       </c>
       <c r="B127">
-        <v>3.116800315406032</v>
+        <v>2.762154308921915</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45101</v>
       </c>
       <c r="B128">
-        <v>2.228634330065106</v>
+        <v>1.779879952539309</v>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45104</v>
       </c>
       <c r="B129">
-        <v>2.217576400308765</v>
+        <v>1.664662835811225</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45105</v>
       </c>
       <c r="B130">
-        <v>1.843537799892043</v>
+        <v>1.582105566164474</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45108</v>
       </c>
       <c r="B131">
-        <v>2.342871843169197</v>
+        <v>2.144726397800653</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45109</v>
       </c>
       <c r="B132">
-        <v>2.112731000366788</v>
+        <v>2.047836272630524</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45110</v>
       </c>
       <c r="B133">
-        <v>2.354272610557182</v>
+        <v>2.309275896737577</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45111</v>
       </c>
       <c r="B134">
-        <v>3.124739083104803</v>
+        <v>2.749882804915714</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45112</v>
       </c>
       <c r="B135">
-        <v>2.236573097763877</v>
+        <v>1.767608448533107</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45113</v>
       </c>
       <c r="B136">
-        <v>2.225515168007537</v>
+        <v>1.652391331805024</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45115</v>
       </c>
       <c r="B137">
-        <v>1.851476567590814</v>
+        <v>1.569834062158272</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45116</v>
       </c>
       <c r="B138">
-        <v>2.350810610867969</v>
+        <v>2.132454893794452</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45117</v>
       </c>
       <c r="B139">
-        <v>2.12066976806556</v>
+        <v>2.035564768624322</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45118</v>
       </c>
       <c r="B140">
-        <v>2.362211378255953</v>
+        <v>2.297004392731376</v>
       </c>
       <c r="C140">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45119</v>
       </c>
       <c r="B141">
-        <v>3.132677850803575</v>
+        <v>2.737611300909512</v>
       </c>
       <c r="C141">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45120</v>
       </c>
       <c r="B142">
-        <v>2.244511865462649</v>
+        <v>1.755336944526906</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45121</v>
       </c>
       <c r="B143">
-        <v>2.233453935706308</v>
+        <v>1.640119827798822</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45124</v>
       </c>
       <c r="B144">
-        <v>1.859415335289586</v>
+        <v>1.557562558152071</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45125</v>
       </c>
       <c r="B145">
-        <v>2.35874937856674</v>
+        <v>2.12018338978825</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45126</v>
       </c>
       <c r="B146">
-        <v>2.128608535764331</v>
+        <v>2.02329326461812</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45127</v>
       </c>
       <c r="B147">
-        <v>2.370150145954725</v>
+        <v>2.284732888725174</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45128</v>
       </c>
       <c r="B148">
-        <v>3.140616618502346</v>
+        <v>2.72533979690331</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45129</v>
       </c>
       <c r="B149">
-        <v>2.25245063316142</v>
+        <v>1.743065440520704</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45130</v>
       </c>
       <c r="B150">
-        <v>2.24139270340508</v>
+        <v>1.62784832379262</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45131</v>
       </c>
       <c r="B151">
-        <v>1.867354102988357</v>
+        <v>1.545291054145869</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45133</v>
       </c>
       <c r="B152">
-        <v>2.366688146265512</v>
+        <v>2.107911885782048</v>
       </c>
       <c r="C152">
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45134</v>
       </c>
       <c r="B153">
-        <v>2.136547303463103</v>
+        <v>2.011021760611918</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45135</v>
       </c>
       <c r="B154">
-        <v>2.378088913653496</v>
+        <v>2.272461384718973</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45136</v>
       </c>
       <c r="B155">
-        <v>3.148555386201118</v>
+        <v>2.713068292897109</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45137</v>
       </c>
       <c r="B156">
-        <v>2.260389400860192</v>
+        <v>1.730793936514502</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45139</v>
       </c>
       <c r="B157">
-        <v>2.249331471103852</v>
+        <v>1.615576819786419</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45140</v>
       </c>
       <c r="B158">
-        <v>1.875292870687129</v>
+        <v>1.533019550139667</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45142</v>
       </c>
       <c r="B159">
-        <v>2.374626913964283</v>
+        <v>2.095640381775846</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45143</v>
       </c>
       <c r="B160">
-        <v>2.144486071161874</v>
+        <v>1.998750256605717</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45144</v>
       </c>
       <c r="B161">
-        <v>2.386027681352268</v>
+        <v>2.260189880712771</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45145</v>
       </c>
       <c r="B162">
-        <v>3.15649415389989</v>
+        <v>2.700796788890907</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45147</v>
       </c>
       <c r="B163">
-        <v>2.268328168558964</v>
+        <v>1.718522432508301</v>
       </c>
       <c r="C163">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45148</v>
       </c>
       <c r="B164">
-        <v>2.257270238802623</v>
+        <v>1.603305315780217</v>
       </c>
       <c r="C164">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45149</v>
       </c>
       <c r="B165">
-        <v>1.883231638385901</v>
+        <v>1.520748046133466</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45150</v>
       </c>
       <c r="B166">
-        <v>2.382565681663054</v>
+        <v>2.083368877769645</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45151</v>
       </c>
       <c r="B167">
-        <v>2.152424838860646</v>
+        <v>1.986478752599515</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45154</v>
       </c>
       <c r="B168">
-        <v>2.39396644905104</v>
+        <v>2.247918376706569</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45155</v>
       </c>
       <c r="B169">
-        <v>3.164432921598661</v>
+        <v>2.688525284884705</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45157</v>
       </c>
       <c r="B170">
-        <v>2.276266936257735</v>
+        <v>1.706250928502099</v>
       </c>
       <c r="C170">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45158</v>
       </c>
       <c r="B171">
-        <v>2.265209006501395</v>
+        <v>1.591033811774015</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45159</v>
       </c>
       <c r="B172">
-        <v>1.891170406084672</v>
+        <v>1.508476542127264</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45161</v>
       </c>
       <c r="B173">
-        <v>2.390504449361826</v>
+        <v>2.071097373763443</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45162</v>
       </c>
       <c r="B174">
-        <v>2.160363606559418</v>
+        <v>1.974207248593313</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45163</v>
       </c>
       <c r="B175">
-        <v>2.401905216749811</v>
+        <v>2.235646872700367</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45164</v>
       </c>
       <c r="B176">
-        <v>3.172371689297433</v>
+        <v>2.676253780878504</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45165</v>
       </c>
       <c r="B177">
-        <v>2.284205703956507</v>
+        <v>1.693979424495897</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45166</v>
       </c>
       <c r="B178">
-        <v>2.273147774200166</v>
+        <v>1.578762307767814</v>
       </c>
       <c r="C178">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45167</v>
       </c>
       <c r="B179">
-        <v>1.899109173783444</v>
+        <v>1.496205038121062</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45168</v>
       </c>
       <c r="B180">
-        <v>2.398443217060598</v>
+        <v>2.058825869757241</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45170</v>
       </c>
       <c r="B181">
-        <v>2.168302374258189</v>
+        <v>1.961935744587111</v>
       </c>
       <c r="C181">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45171</v>
       </c>
       <c r="B182">
-        <v>2.409843984448583</v>
+        <v>2.223375368694165</v>
       </c>
       <c r="C182">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45172</v>
       </c>
       <c r="B183">
-        <v>3.180310456996204</v>
+        <v>2.663982276872302</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45173</v>
       </c>
       <c r="B184">
-        <v>2.292144471655278</v>
+        <v>1.681707920489696</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45174</v>
       </c>
       <c r="B185">
-        <v>2.281086541898938</v>
+        <v>1.566490803761612</v>
       </c>
       <c r="C185">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45177</v>
       </c>
       <c r="B186">
-        <v>1.907047941482215</v>
+        <v>1.48393353411486</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45179</v>
       </c>
       <c r="B187">
-        <v>2.40638198475937</v>
+        <v>2.04655436575104</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45181</v>
       </c>
       <c r="B188">
-        <v>2.176241141956961</v>
+        <v>1.94966424058091</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45182</v>
       </c>
       <c r="B189">
-        <v>2.417782752147354</v>
+        <v>2.211103864687964</v>
       </c>
       <c r="C189">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45184</v>
       </c>
       <c r="B190">
-        <v>3.188249224694976</v>
+        <v>2.6517107728661</v>
       </c>
       <c r="C190">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45185</v>
       </c>
       <c r="B191">
-        <v>2.30008323935405</v>
+        <v>1.669436416483494</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45186</v>
       </c>
       <c r="B192">
-        <v>2.28902530959771</v>
+        <v>1.55421929975541</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45189</v>
       </c>
       <c r="B193">
-        <v>1.914986709180987</v>
+        <v>1.471662030108658</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45190</v>
       </c>
       <c r="B194">
-        <v>2.414320752458141</v>
+        <v>2.034282861744838</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45191</v>
       </c>
       <c r="B195">
-        <v>2.184179909655732</v>
+        <v>1.937392736574708</v>
       </c>
       <c r="C195">
         <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45192</v>
       </c>
       <c r="B196">
-        <v>2.425721519846126</v>
+        <v>2.198832360681762</v>
       </c>
       <c r="C196">
         <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45193</v>
       </c>
       <c r="B197">
-        <v>3.196187992393747</v>
+        <v>2.639439268859898</v>
       </c>
       <c r="C197">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45194</v>
       </c>
       <c r="B198">
-        <v>2.308022007052821</v>
+        <v>1.657164912477292</v>
       </c>
       <c r="C198">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45195</v>
       </c>
       <c r="B199">
-        <v>2.296964077296481</v>
+        <v>1.541947795749209</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45196</v>
       </c>
       <c r="B200">
-        <v>1.922925476879758</v>
+        <v>1.459390526102457</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45197</v>
       </c>
       <c r="B201">
-        <v>2.422259520156913</v>
+        <v>2.022011357738636</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45198</v>
       </c>
       <c r="B202">
-        <v>2.192118677354504</v>
+        <v>1.925121232568506</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45201</v>
       </c>
       <c r="B203">
-        <v>2.433660287544897</v>
+        <v>2.18656085667556</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45202</v>
       </c>
       <c r="B204">
-        <v>3.204126760092519</v>
+        <v>2.627167764853697</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45203</v>
       </c>
       <c r="B205">
-        <v>2.315960774751593</v>
+        <v>1.644893408471091</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45205</v>
       </c>
       <c r="B206">
-        <v>2.304902844995253</v>
+        <v>1.529676291743007</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45209</v>
       </c>
       <c r="B207">
-        <v>1.93086424457853</v>
+        <v>1.447119022096255</v>
       </c>
       <c r="C207">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45211</v>
       </c>
       <c r="B208">
-        <v>2.430198287855684</v>
+        <v>2.009739853732435</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45213</v>
       </c>
       <c r="B209">
-        <v>2.200057445053275</v>
+        <v>1.912849728562305</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45215</v>
       </c>
       <c r="B210">
-        <v>2.441599055243669</v>
+        <v>2.174289352669359</v>
       </c>
       <c r="C210">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45216</v>
       </c>
       <c r="B211">
-        <v>3.212065527791291</v>
+        <v>2.614896260847495</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45217</v>
       </c>
       <c r="B212">
-        <v>2.323899542450365</v>
+        <v>1.632621904464889</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45218</v>
       </c>
       <c r="B213">
-        <v>2.312841612694024</v>
+        <v>1.517404787736805</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45219</v>
       </c>
       <c r="B214">
-        <v>1.938803012277302</v>
+        <v>1.434847518090054</v>
       </c>
       <c r="C214">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45220</v>
       </c>
       <c r="B215">
-        <v>2.438137055554455</v>
+        <v>1.997468349726233</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45221</v>
       </c>
       <c r="B216">
-        <v>2.207996212752047</v>
+        <v>1.900578224556103</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45222</v>
       </c>
       <c r="B217">
-        <v>2.449537822942441</v>
+        <v>2.162017848663157</v>
       </c>
       <c r="C217">
         <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45223</v>
       </c>
       <c r="B218">
-        <v>3.220004295490062</v>
+        <v>2.602624756841293</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45224</v>
       </c>
       <c r="B219">
-        <v>2.331838310149136</v>
+        <v>1.620350400458687</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45225</v>
       </c>
       <c r="B220">
-        <v>2.320780380392796</v>
+        <v>1.505133283730603</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45227</v>
       </c>
       <c r="B221">
-        <v>1.946741779976073</v>
+        <v>1.422576014083852</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45228</v>
       </c>
       <c r="B222">
-        <v>2.446075823253227</v>
+        <v>1.985196845720032</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45229</v>
       </c>
       <c r="B223">
-        <v>2.215934980450819</v>
+        <v>1.888306720549901</v>
       </c>
       <c r="C223">
         <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45232</v>
       </c>
       <c r="B224">
-        <v>2.457476590641212</v>
+        <v>2.149746344656955</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45233</v>
       </c>
       <c r="B225">
-        <v>3.227943063188834</v>
+        <v>2.590353252835092</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45234</v>
       </c>
       <c r="B226">
-        <v>2.339777077847908</v>
+        <v>1.608078896452485</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45235</v>
       </c>
       <c r="B227">
-        <v>2.328719148091567</v>
+        <v>1.492861779724402</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45236</v>
       </c>
       <c r="B228">
-        <v>1.954680547674845</v>
+        <v>1.41030451007765</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45239</v>
       </c>
       <c r="B229">
-        <v>2.454014590951999</v>
+        <v>1.97292534171383</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45240</v>
       </c>
       <c r="B230">
-        <v>2.22387374814959</v>
+        <v>1.8760352165437</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45241</v>
       </c>
       <c r="B231">
-        <v>2.465415358339984</v>
+        <v>2.137474840650754</v>
       </c>
       <c r="C231">
         <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45242</v>
       </c>
       <c r="B232">
-        <v>3.235881830887605</v>
+        <v>2.578081748828891</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45243</v>
       </c>
       <c r="B233">
-        <v>2.347715845546679</v>
+        <v>1.595807392446284</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45244</v>
       </c>
       <c r="B234">
-        <v>2.336657915790339</v>
+        <v>1.4805902757182</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45246</v>
       </c>
       <c r="B235">
-        <v>1.962619315373616</v>
+        <v>1.398033006071449</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>45247</v>
       </c>
       <c r="B236">
-        <v>2.461953358650771</v>
+        <v>1.960653837707628</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>45249</v>
       </c>
       <c r="B237">
-        <v>2.231812515848361</v>
+        <v>1.863763712537498</v>
       </c>
       <c r="C237">
         <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>45250</v>
       </c>
       <c r="B238">
-        <v>2.473354126038755</v>
+        <v>2.125203336644552</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>45252</v>
       </c>
       <c r="B239">
-        <v>3.243820598586377</v>
+        <v>2.565810244822688</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
+      <c r="A240" s="2">
+        <v>45253</v>
       </c>
       <c r="B240">
-        <v>2.355654613245451</v>
+        <v>1.583535888440082</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
+      <c r="A241" s="2">
+        <v>45254</v>
       </c>
       <c r="B241">
-        <v>2.344596683489111</v>
+        <v>1.468318771711998</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2">
+        <v>45255</v>
       </c>
       <c r="B242">
-        <v>1.970558083072388</v>
+        <v>1.385761502065247</v>
       </c>
       <c r="C242">
         <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
+      <c r="A243" s="2">
+        <v>45257</v>
       </c>
       <c r="B243">
-        <v>2.469892126349542</v>
+        <v>1.948382333701427</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
+      <c r="A244" s="2">
+        <v>45258</v>
       </c>
       <c r="B244">
-        <v>2.239751283547133</v>
+        <v>1.851492208531296</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
+      <c r="A245" s="2">
+        <v>45259</v>
       </c>
       <c r="B245">
-        <v>2.481292893737527</v>
+        <v>2.11293183263835</v>
       </c>
       <c r="C245">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
+      <c r="A246" s="2">
+        <v>45261</v>
       </c>
       <c r="B246">
-        <v>3.251759366285148</v>
+        <v>2.553538740816487</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
+      <c r="A247" s="2">
+        <v>45262</v>
       </c>
       <c r="B247">
-        <v>2.363593380944223</v>
+        <v>1.57126438443388</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
+      <c r="A248" s="2">
+        <v>45265</v>
       </c>
       <c r="B248">
-        <v>2.352535451187882</v>
+        <v>1.456047267705797</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
+      <c r="A249" s="2">
+        <v>45266</v>
       </c>
       <c r="B249">
-        <v>1.978496850771159</v>
+        <v>1.373489998059045</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
+      <c r="A250" s="2">
+        <v>45267</v>
       </c>
       <c r="B250">
-        <v>2.477830894048314</v>
+        <v>1.936110829695225</v>
       </c>
       <c r="C250">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
+      <c r="A251" s="2">
+        <v>45269</v>
       </c>
       <c r="B251">
-        <v>2.247690051245905</v>
+        <v>1.839220704525095</v>
       </c>
       <c r="C251">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
+      <c r="A252" s="2">
+        <v>45270</v>
       </c>
       <c r="B252">
-        <v>2.489231661436298</v>
+        <v>2.100660328632149</v>
       </c>
       <c r="C252">
         <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="1">
-        <v>251</v>
+      <c r="A253" s="2">
+        <v>45271</v>
       </c>
       <c r="B253">
-        <v>3.25969813398392</v>
+        <v>2.541267236810285</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>252</v>
+      <c r="A254" s="2">
+        <v>45272</v>
       </c>
       <c r="B254">
-        <v>2.371532148642994</v>
+        <v>1.558992880427679</v>
       </c>
       <c r="C254">
         <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="1">
-        <v>253</v>
+      <c r="A255" s="2">
+        <v>45273</v>
       </c>
       <c r="B255">
-        <v>2.360474218886654</v>
+        <v>1.443775763699595</v>
       </c>
       <c r="C255">
         <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>254</v>
+      <c r="A256" s="2">
+        <v>45274</v>
       </c>
       <c r="B256">
-        <v>1.986435618469931</v>
+        <v>1.361218494052844</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="1">
-        <v>255</v>
+      <c r="A257" s="2">
+        <v>45275</v>
       </c>
       <c r="B257">
-        <v>2.485769661747085</v>
+        <v>1.923839325689023</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="1">
-        <v>256</v>
+      <c r="A258" s="2">
+        <v>45276</v>
       </c>
       <c r="B258">
-        <v>2.255628818944676</v>
+        <v>1.826949200518893</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="1">
-        <v>257</v>
+      <c r="A259" s="2">
+        <v>45277</v>
       </c>
       <c r="B259">
-        <v>2.49717042913507</v>
+        <v>2.088388824625947</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="1">
-        <v>258</v>
+      <c r="A260" s="2">
+        <v>45278</v>
       </c>
       <c r="B260">
-        <v>3.267636901682692</v>
+        <v>2.528995732804083</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="1">
-        <v>259</v>
+      <c r="A261" s="2">
+        <v>45279</v>
       </c>
       <c r="B261">
-        <v>2.379470916341766</v>
+        <v>1.546721376421477</v>
       </c>
       <c r="C261">
         <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="1">
-        <v>260</v>
+      <c r="A262" s="2">
+        <v>45281</v>
       </c>
       <c r="B262">
-        <v>2.368412986585425</v>
+        <v>1.431504259693393</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="1">
-        <v>261</v>
+      <c r="A263" s="2">
+        <v>45282</v>
       </c>
       <c r="B263">
-        <v>1.994374386168703</v>
+        <v>1.348946990046642</v>
       </c>
       <c r="C263">
         <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="1">
-        <v>262</v>
+      <c r="A264" s="2">
+        <v>45283</v>
       </c>
       <c r="B264">
-        <v>2.493708429445856</v>
+        <v>1.911567821682821</v>
       </c>
       <c r="C264">
         <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="1">
-        <v>263</v>
+      <c r="A265" s="2">
+        <v>45284</v>
       </c>
       <c r="B265">
-        <v>2.263567586643448</v>
+        <v>1.814677696512691</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="1">
-        <v>264</v>
+      <c r="A266" s="2">
+        <v>45287</v>
       </c>
       <c r="B266">
-        <v>2.505109196833842</v>
+        <v>2.076117320619745</v>
       </c>
       <c r="C266">
         <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="1">
-        <v>265</v>
+      <c r="A267" s="2">
+        <v>45289</v>
       </c>
       <c r="B267">
-        <v>3.275575669381463</v>
+        <v>2.516724228797882</v>
       </c>
       <c r="C267">
         <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="1">
-        <v>266</v>
+      <c r="A268" s="2">
+        <v>45290</v>
       </c>
       <c r="B268">
-        <v>2.387409684040537</v>
+        <v>1.534449872415275</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="1">
-        <v>267</v>
+      <c r="A269" s="2">
+        <v>45293</v>
       </c>
       <c r="B269">
-        <v>2.376351754284197</v>
+        <v>1.419232755687192</v>
       </c>
       <c r="C269">
         <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="1">
-        <v>268</v>
+      <c r="A270" s="2">
+        <v>45294</v>
       </c>
       <c r="B270">
-        <v>2.002313153867474</v>
+        <v>1.33667548604044</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="1">
-        <v>269</v>
+      <c r="A271" s="2">
+        <v>45295</v>
       </c>
       <c r="B271">
-        <v>2.501647197144628</v>
+        <v>1.899296317676619</v>
       </c>
       <c r="C271">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="1">
-        <v>270</v>
+      <c r="A272" s="2">
+        <v>45296</v>
       </c>
       <c r="B272">
-        <v>2.27150635434222</v>
+        <v>1.80240619250649</v>
       </c>
       <c r="C272">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="1">
-        <v>271</v>
+      <c r="A273" s="2">
+        <v>45298</v>
       </c>
       <c r="B273">
-        <v>2.513047964532613</v>
+        <v>2.063845816613544</v>
       </c>
       <c r="C273">
         <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="1">
-        <v>272</v>
+      <c r="A274" s="2">
+        <v>45299</v>
       </c>
       <c r="B274">
-        <v>3.283514437080234</v>
+        <v>2.50445272479168</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="1">
-        <v>273</v>
+      <c r="A275" s="2">
+        <v>45301</v>
       </c>
       <c r="B275">
-        <v>2.395348451739309</v>
+        <v>1.522178368409074</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="1">
-        <v>274</v>
+      <c r="A276" s="2">
+        <v>45302</v>
       </c>
       <c r="B276">
-        <v>2.384290521982968</v>
+        <v>1.40696125168099</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="1">
-        <v>275</v>
+      <c r="A277" s="2">
+        <v>45304</v>
       </c>
       <c r="B277">
-        <v>2.010251921566246</v>
+        <v>1.324403982034239</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="1">
-        <v>276</v>
+      <c r="A278" s="2">
+        <v>45305</v>
       </c>
       <c r="B278">
-        <v>2.5095859648434</v>
+        <v>1.887024813670418</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="1">
-        <v>277</v>
+      <c r="A279" s="2">
+        <v>45306</v>
       </c>
       <c r="B279">
-        <v>2.279445122040991</v>
+        <v>1.790134688500288</v>
       </c>
       <c r="C279">
         <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="1">
-        <v>278</v>
+      <c r="A280" s="2">
+        <v>45310</v>
       </c>
       <c r="B280">
-        <v>2.520986732231385</v>
+        <v>2.051574312607342</v>
       </c>
       <c r="C280">
         <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="1">
-        <v>279</v>
+      <c r="A281" s="2">
+        <v>45312</v>
       </c>
       <c r="B281">
-        <v>3.291453204779006</v>
+        <v>2.492181220785478</v>
       </c>
       <c r="C281">
         <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="1">
-        <v>280</v>
+      <c r="A282" s="2">
+        <v>45313</v>
       </c>
       <c r="B282">
-        <v>2.40328721943808</v>
+        <v>1.509906864402872</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="1">
-        <v>281</v>
+      <c r="A283" s="2">
+        <v>45314</v>
       </c>
       <c r="B283">
-        <v>2.39222928968174</v>
+        <v>1.394689747674788</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="1">
-        <v>282</v>
+      <c r="A284" s="2">
+        <v>45317</v>
       </c>
       <c r="B284">
-        <v>2.018190689265017</v>
+        <v>1.312132478028037</v>
       </c>
       <c r="C284">
         <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="1">
-        <v>283</v>
+      <c r="A285" s="2">
+        <v>45318</v>
       </c>
       <c r="B285">
-        <v>2.517524732542172</v>
+        <v>1.874753309664216</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="1">
-        <v>284</v>
+      <c r="A286" s="2">
+        <v>45319</v>
       </c>
       <c r="B286">
-        <v>2.287383889739762</v>
+        <v>1.777863184494086</v>
       </c>
       <c r="C286">
         <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="1">
-        <v>285</v>
+      <c r="A287" s="2">
+        <v>45320</v>
       </c>
       <c r="B287">
-        <v>2.528925499930156</v>
+        <v>2.03930280860114</v>
       </c>
       <c r="C287">
         <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="1">
-        <v>286</v>
+      <c r="A288" s="2">
+        <v>45321</v>
       </c>
       <c r="B288">
-        <v>3.299391972477778</v>
+        <v>2.479909716779277</v>
       </c>
       <c r="C288">
         <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="1">
-        <v>287</v>
+      <c r="A289" s="2">
+        <v>45323</v>
       </c>
       <c r="B289">
-        <v>2.411225987136852</v>
+        <v>1.49763536039667</v>
       </c>
       <c r="C289">
         <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="1">
-        <v>288</v>
+      <c r="A290" s="2">
+        <v>45324</v>
       </c>
       <c r="B290">
-        <v>2.400168057380512</v>
+        <v>1.382418243668587</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="1">
-        <v>289</v>
+      <c r="A291" s="2">
+        <v>45326</v>
       </c>
       <c r="B291">
-        <v>2.026129456963789</v>
+        <v>1.299860974021835</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="1">
-        <v>290</v>
+      <c r="A292" s="2">
+        <v>45327</v>
       </c>
       <c r="B292">
-        <v>2.525463500240943</v>
+        <v>1.862481805658014</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="1">
-        <v>291</v>
+      <c r="A293" s="2">
+        <v>45328</v>
       </c>
       <c r="B293">
-        <v>2.295322657438534</v>
+        <v>1.765591680487884</v>
       </c>
       <c r="C293">
         <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="1">
-        <v>292</v>
+      <c r="A294" s="2">
+        <v>45329</v>
       </c>
       <c r="B294">
-        <v>2.536864267628928</v>
+        <v>2.027031304594939</v>
       </c>
       <c r="C294">
         <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="1">
-        <v>293</v>
+      <c r="A295" s="2">
+        <v>45330</v>
       </c>
       <c r="B295">
-        <v>3.307330740176549</v>
+        <v>2.467638212773075</v>
       </c>
       <c r="C295">
         <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="1">
-        <v>294</v>
+      <c r="A296" s="2">
+        <v>45331</v>
       </c>
       <c r="B296">
-        <v>2.419164754835624</v>
+        <v>1.485363856390469</v>
       </c>
       <c r="C296">
         <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="1">
-        <v>295</v>
+      <c r="A297" s="2">
+        <v>45333</v>
       </c>
       <c r="B297">
-        <v>2.408106825079283</v>
+        <v>1.370146739662385</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="1">
-        <v>296</v>
+      <c r="A298" s="2">
+        <v>45335</v>
       </c>
       <c r="B298">
-        <v>2.03406822466256</v>
+        <v>1.287589470015633</v>
       </c>
       <c r="C298">
         <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="1">
-        <v>297</v>
+      <c r="A299" s="2">
+        <v>45336</v>
       </c>
       <c r="B299">
-        <v>2.533402267939715</v>
+        <v>1.850210301651813</v>
       </c>
       <c r="C299">
         <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="1">
-        <v>298</v>
+      <c r="A300" s="2">
+        <v>45337</v>
       </c>
       <c r="B300">
-        <v>2.303261425137306</v>
+        <v>1.753320176481683</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="1">
-        <v>299</v>
+      <c r="A301" s="2">
+        <v>45338</v>
       </c>
       <c r="B301">
-        <v>2.544803035327699</v>
+        <v>2.014759800588737</v>
       </c>
       <c r="C301">
         <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1">
-        <v>300</v>
+      <c r="A302" s="2">
+        <v>45340</v>
       </c>
       <c r="B302">
-        <v>3.315269507875321</v>
+        <v>2.455366708766873</v>
       </c>
       <c r="C302">
         <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="1">
-        <v>301</v>
+      <c r="A303" s="2">
+        <v>45341</v>
       </c>
       <c r="B303">
-        <v>2.427103522534395</v>
+        <v>1.473092352384267</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="1">
-        <v>302</v>
+      <c r="A304" s="2">
+        <v>45342</v>
       </c>
       <c r="B304">
-        <v>2.416045592778055</v>
+        <v>1.357875235656183</v>
       </c>
       <c r="C304">
         <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="1">
-        <v>303</v>
+      <c r="A305" s="2">
+        <v>45343</v>
       </c>
       <c r="B305">
-        <v>2.042006992361332</v>
+        <v>1.275317966009432</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="1">
-        <v>304</v>
+      <c r="A306" s="2">
+        <v>45344</v>
       </c>
       <c r="B306">
-        <v>2.541341035638486</v>
+        <v>1.837938797645611</v>
       </c>
       <c r="C306">
         <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="1">
-        <v>305</v>
+      <c r="A307" s="2">
+        <v>45345</v>
       </c>
       <c r="B307">
-        <v>2.311200192836077</v>
+        <v>1.741048672475481</v>
       </c>
       <c r="C307">
         <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="1">
-        <v>306</v>
+      <c r="A308" s="2">
+        <v>45346</v>
       </c>
       <c r="B308">
-        <v>2.552741803026471</v>
+        <v>2.002488296582535</v>
       </c>
       <c r="C308">
         <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="1">
-        <v>307</v>
+      <c r="A309" s="2">
+        <v>45347</v>
       </c>
       <c r="B309">
-        <v>3.323208275574093</v>
+        <v>2.443095204760671</v>
       </c>
       <c r="C309">
         <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="1">
-        <v>308</v>
+      <c r="A310" s="2">
+        <v>45348</v>
       </c>
       <c r="B310">
-        <v>2.435042290233167</v>
+        <v>1.460820848378065</v>
       </c>
       <c r="C310">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="1">
-        <v>309</v>
+      <c r="A311" s="2">
+        <v>45349</v>
       </c>
       <c r="B311">
-        <v>2.423984360476826</v>
+        <v>1.345603731649982</v>
       </c>
       <c r="C311">
         <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="1">
-        <v>310</v>
+      <c r="A312" s="2">
+        <v>45350</v>
       </c>
       <c r="B312">
-        <v>2.049945760060104</v>
+        <v>1.26304646200323</v>
       </c>
       <c r="C312">
         <v>4</v>
